--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin_myschool" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="165">
   <si>
     <t>Username</t>
   </si>
@@ -27,27 +27,30 @@
     <t>Password</t>
   </si>
   <si>
-    <t>executive@codewave.com</t>
+    <t>rajemailex@gmail.com</t>
+  </si>
+  <si>
+    <t>Raj@12345</t>
+  </si>
+  <si>
+    <t>mithun@codewave.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>codewave</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>executive</t>
   </si>
   <si>
     <t>Executive@12</t>
   </si>
   <si>
-    <t>mithun@codewave.com</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>codewave</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>executive</t>
-  </si>
-  <si>
     <t>Pwd</t>
   </si>
   <si>
@@ -105,19 +108,19 @@
     <t>Mother_Tounge</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>student1011102@gmail.com</t>
-  </si>
-  <si>
-    <t>Amulscs</t>
+    <t>10025</t>
+  </si>
+  <si>
+    <t>student10025@gmail.com</t>
+  </si>
+  <si>
+    <t>Fam</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9111110002</t>
+    <t>9999999925</t>
   </si>
   <si>
     <t>India</t>
@@ -126,223 +129,322 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>Tumakuru</t>
-  </si>
-  <si>
-    <t>572101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APMC </t>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>560010</t>
+  </si>
+  <si>
+    <t>Rajajinagar</t>
   </si>
   <si>
     <t>same as prefered address</t>
   </si>
   <si>
-    <t>20 Jan, 2018</t>
-  </si>
-  <si>
-    <t>18 Nov, 2023</t>
+    <t>14 Mar, 2017</t>
+  </si>
+  <si>
+    <t>13 Nov, 2023</t>
+  </si>
+  <si>
+    <t>June/2023-April/2024</t>
+  </si>
+  <si>
+    <t>GradeTHREE</t>
+  </si>
+  <si>
+    <t>Section A</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>NameOfInstitute</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>TenantId</t>
+  </si>
+  <si>
+    <t>AffiliationNo</t>
+  </si>
+  <si>
+    <t>TagLine</t>
+  </si>
+  <si>
+    <t>ThemeCode</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Soumitra Institute</t>
+  </si>
+  <si>
+    <t>2330011110</t>
+  </si>
+  <si>
+    <t>SoumitraInstitute@g.com</t>
+  </si>
+  <si>
+    <t>soumitra</t>
+  </si>
+  <si>
+    <t>Soumitra&amp;12</t>
+  </si>
+  <si>
+    <t>335552</t>
+  </si>
+  <si>
+    <t>LOtus</t>
+  </si>
+  <si>
+    <t>Theme 1 (background emerald)</t>
+  </si>
+  <si>
+    <t>www.sumitra.com</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Adoni</t>
+  </si>
+  <si>
+    <t>Temple Road</t>
+  </si>
+  <si>
+    <t>Market road</t>
+  </si>
+  <si>
+    <t>518301</t>
+  </si>
+  <si>
+    <t>ICSE</t>
+  </si>
+  <si>
+    <t>Mangalore Institute</t>
+  </si>
+  <si>
+    <t>2130000322</t>
+  </si>
+  <si>
+    <t>Mangalore@g.com</t>
+  </si>
+  <si>
+    <t>redmine</t>
+  </si>
+  <si>
+    <t>Manglor&amp;4</t>
+  </si>
+  <si>
+    <t>29311</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Theme 3 (background cyan)</t>
+  </si>
+  <si>
+    <t>www.finoma.org</t>
+  </si>
+  <si>
+    <t>Mangaluru</t>
+  </si>
+  <si>
+    <t>Veedhi</t>
+  </si>
+  <si>
+    <t>689924</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pw, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameOfInstitute, </t>
+  </si>
+  <si>
+    <t>Name Of Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TenantId, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AffiliationNo, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TagLine, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThemeCode, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street2, </t>
+  </si>
+  <si>
+    <t>student1005@gmail.com</t>
+  </si>
+  <si>
+    <t>Suren</t>
+  </si>
+  <si>
+    <t>9988330005</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Anna Nagar</t>
+  </si>
+  <si>
+    <t>30 Jul, 2016</t>
+  </si>
+  <si>
+    <t>20 Nov, 2023</t>
   </si>
   <si>
     <t>October/2023-October/2024</t>
   </si>
   <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>student1006@gmail.com</t>
+  </si>
+  <si>
+    <t>Mulla</t>
+  </si>
+  <si>
+    <t>9988330006</t>
+  </si>
+  <si>
+    <t>student1007@gmail.com</t>
+  </si>
+  <si>
+    <t>Kanti</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>9988330007</t>
+  </si>
+  <si>
+    <t>Tumkur</t>
+  </si>
+  <si>
+    <t>Sharada colony</t>
+  </si>
+  <si>
+    <t>16 Jan, 2016</t>
+  </si>
+  <si>
+    <t>15 Nov, 2023</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>student1008@gmail.com</t>
+  </si>
+  <si>
+    <t>Sumi</t>
+  </si>
+  <si>
+    <t>9988330008</t>
+  </si>
+  <si>
+    <t>Dollars Colony</t>
+  </si>
+  <si>
+    <t>20 Sep, 2017</t>
+  </si>
+  <si>
+    <t>12 Nov, 2023</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>Kannada</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>student1003@gmail.com</t>
-  </si>
-  <si>
-    <t>Soham</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>9388330003</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Trivandrum</t>
-  </si>
-  <si>
-    <t>605036</t>
-  </si>
-  <si>
-    <t>Rajagopala nagar</t>
-  </si>
-  <si>
-    <t>25 Mar, 2017</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>Malayalam</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>student1004@gmail.com</t>
-  </si>
-  <si>
-    <t>Bhatia</t>
-  </si>
-  <si>
-    <t>9988330004</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Vijayawada</t>
-  </si>
-  <si>
-    <t>302355</t>
-  </si>
-  <si>
-    <t>Aknuru</t>
-  </si>
-  <si>
-    <t>02 Feb, 2016</t>
-  </si>
-  <si>
-    <t>Telugu</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>NameOfInstitute</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>TenantId</t>
-  </si>
-  <si>
-    <t>AffiliationNo</t>
-  </si>
-  <si>
-    <t>TagLine</t>
-  </si>
-  <si>
-    <t>ThemeCode</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Street1</t>
-  </si>
-  <si>
-    <t>Street2</t>
-  </si>
-  <si>
-    <t>Pincode</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Malabar Institute</t>
-  </si>
-  <si>
-    <t>2220011110</t>
-  </si>
-  <si>
-    <t>malabarInstitute@g.com</t>
-  </si>
-  <si>
-    <t>malabar</t>
-  </si>
-  <si>
-    <t>Malabar&amp;12</t>
-  </si>
-  <si>
-    <t>33322</t>
-  </si>
-  <si>
-    <t>Swan</t>
-  </si>
-  <si>
-    <t>Theme 1 (background emerald)</t>
-  </si>
-  <si>
-    <t>www.malabar.com</t>
-  </si>
-  <si>
-    <t>Cherthala</t>
-  </si>
-  <si>
-    <t>Main Road</t>
-  </si>
-  <si>
-    <t>Hangman road</t>
-  </si>
-  <si>
-    <t>222205</t>
-  </si>
-  <si>
-    <t>ICSE</t>
-  </si>
-  <si>
-    <t>Mangalore Institute</t>
-  </si>
-  <si>
-    <t>2130000322</t>
-  </si>
-  <si>
-    <t>Mangalore@g.com</t>
-  </si>
-  <si>
-    <t>redmine</t>
-  </si>
-  <si>
-    <t>Manglor&amp;4</t>
-  </si>
-  <si>
-    <t>29311</t>
-  </si>
-  <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
-    <t>Theme 3 (background cyan)</t>
-  </si>
-  <si>
-    <t>www.finoma.org</t>
-  </si>
-  <si>
-    <t>Mangaluru</t>
-  </si>
-  <si>
-    <t>Temple Road</t>
-  </si>
-  <si>
-    <t>Veedhi</t>
-  </si>
-  <si>
-    <t>689924</t>
-  </si>
-  <si>
-    <t>CBSE</t>
+    <t>student1009@gmail.com</t>
+  </si>
+  <si>
+    <t>Rai</t>
+  </si>
+  <si>
+    <t>9988330009</t>
+  </si>
+  <si>
+    <t>DMK Road</t>
+  </si>
+  <si>
+    <t>11 Oct, 2017</t>
+  </si>
+  <si>
+    <t>14 Nov, 2023</t>
   </si>
   <si>
     <t>Gem ocean</t>
@@ -384,136 +486,34 @@
     <t>171222</t>
   </si>
   <si>
-    <t xml:space="preserve">un, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pw, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NameOfInstitute, </t>
-  </si>
-  <si>
-    <t>Name Of Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TenantId, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AffiliationNo, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TagLine, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThemeCode, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">State, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">City, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street2, </t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>student1005@gmail.com</t>
-  </si>
-  <si>
-    <t>Suren</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Anna Nagar</t>
-  </si>
-  <si>
-    <t>30 Jul, 2016</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>student1006@gmail.com</t>
-  </si>
-  <si>
-    <t>Mulla</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>Rajajinagar</t>
-  </si>
-  <si>
-    <t>14 Mar, 2017</t>
-  </si>
-  <si>
-    <t>student1007@gmail.com</t>
-  </si>
-  <si>
-    <t>Kanti</t>
-  </si>
-  <si>
-    <t>Tumkur</t>
-  </si>
-  <si>
-    <t>Sharada colony</t>
-  </si>
-  <si>
-    <t>16 Jan, 2016</t>
-  </si>
-  <si>
-    <t>student1008@gmail.com</t>
-  </si>
-  <si>
-    <t>Sumi</t>
-  </si>
-  <si>
-    <t>Dollars Colony</t>
-  </si>
-  <si>
-    <t>20 Sep, 2017</t>
-  </si>
-  <si>
-    <t>student1009@gmail.com</t>
-  </si>
-  <si>
-    <t>Rai</t>
-  </si>
-  <si>
-    <t>DMK Road</t>
-  </si>
-  <si>
-    <t>11 Oct, 2017</t>
+    <t>Coral ocean</t>
+  </si>
+  <si>
+    <t>1163331110</t>
+  </si>
+  <si>
+    <t>Coral@g.com</t>
+  </si>
+  <si>
+    <t>coralocean</t>
+  </si>
+  <si>
+    <t>Coral&amp;1234</t>
+  </si>
+  <si>
+    <t>712222</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>www.coral.com</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Sonada</t>
   </si>
 </sst>
 </file>
@@ -536,14 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,10 +544,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -571,6 +565,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1019,10 +1019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1149,33 +1149,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,13 +1492,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="25.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
@@ -1511,27 +1508,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="rajemailex@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1556,25 +1552,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1617,11 +1613,11 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1636,24 +1632,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="18.5454545454545" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.5454545454545" style="7" customWidth="1"/>
     <col min="4" max="4" width="22.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="17.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="7" customWidth="1"/>
     <col min="8" max="8" width="23.5454545454545" customWidth="1"/>
     <col min="9" max="9" width="15.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="11.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="17" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17" style="7" customWidth="1"/>
     <col min="12" max="12" width="17.5454545454545" customWidth="1"/>
     <col min="13" max="13" width="24.5454545454545" customWidth="1"/>
     <col min="14" max="14" width="12.7272727272727" customWidth="1"/>
@@ -1664,259 +1660,135 @@
     <col min="20" max="20" width="15.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:20">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:20">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="G2" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="K2" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="student1011102@gmail.com" tooltip="mailto:student1011102@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="student1003@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="student1004@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="student10025@gmail.com" tooltip="mailto:student10025@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="rajemailex@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId3" display="Raj@12345"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1926,13 +1798,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
@@ -1948,231 +1820,175 @@
     <col min="14" max="14" width="10.5454545454545" customWidth="1"/>
     <col min="15" max="15" width="11.3636363636364" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="8.72727272727273" style="7"/>
+    <col min="17" max="17" width="8.72727272727273" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="P2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="Q2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="R2" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="F3" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="H3" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="J3" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="K3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="O3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
+      <c r="R3" t="s">
         <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2180,14 +1996,10 @@
     <hyperlink ref="A3" r:id="rId1" display="mithun@codewave.com"/>
     <hyperlink ref="G3" r:id="rId2" display="Manglor&amp;4"/>
     <hyperlink ref="E3" r:id="rId3" display="Mangalore@g.com" tooltip="mailto:Mangalore@g.com"/>
-    <hyperlink ref="A4" r:id="rId1" display="mithun@codewave.com"/>
-    <hyperlink ref="E4" r:id="rId4" display="Gemcean@g.com" tooltip="mailto:Gemcean@g.com"/>
-    <hyperlink ref="G4" r:id="rId5" display="GemOce&amp;12" tooltip="mailto:Blueoc@12"/>
-    <hyperlink ref="K4" r:id="rId6" display="www.gemocean.com" tooltip="http://www.gemocean.com"/>
     <hyperlink ref="A2" r:id="rId1" display="mithun@codewave.com"/>
-    <hyperlink ref="E2" r:id="rId7" display="malabarInstitute@g.com" tooltip="mailto:malabarInstitute@g.com"/>
-    <hyperlink ref="G2" r:id="rId5" display="Malabar&amp;12" tooltip="mailto:Blueoc@12"/>
-    <hyperlink ref="K2" r:id="rId8" display="www.malabar.com" tooltip="http://www.malabar.com"/>
+    <hyperlink ref="E2" r:id="rId4" display="SoumitraInstitute@g.com" tooltip="mailto:SoumitraInstitute@g.com"/>
+    <hyperlink ref="G2" r:id="rId5" display="Soumitra&amp;12" tooltip="mailto:Blueoc@12"/>
+    <hyperlink ref="K2" r:id="rId6" display="www.sumitra.com" tooltip="http://www.sumitra.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2197,20 +2009,28 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:R19"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="17.0909090909091" customWidth="1"/>
+    <col min="3" max="4" width="11.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="12.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="14.8181818181818" customWidth="1"/>
+    <col min="11" max="11" width="24.6363636363636" customWidth="1"/>
+    <col min="12" max="12" width="12.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="15.2727272727273" customWidth="1"/>
+    <col min="14" max="14" width="27.1818181818182" customWidth="1"/>
+    <col min="17" max="17" width="12.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2218,7 +2038,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2226,39 +2046,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2266,466 +2086,697 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
-        <v>1004</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>1005</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2">
-        <v>9988330004</v>
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I19">
-        <v>302355</v>
+        <v>600001</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>110</v>
+      </c>
+      <c r="M19" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="Q19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
-        <v>1005</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>1006</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2">
-        <v>9988330005</v>
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="I20">
-        <v>600001</v>
+        <v>560010</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>1006</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>1007</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2">
-        <v>9988330006</v>
+        <v>121</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="I21">
-        <v>560010</v>
+        <v>572101</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L21" t="s">
-        <v>151</v>
+        <v>125</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" t="s">
+        <v>112</v>
       </c>
       <c r="O21" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>1007</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>1008</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2">
-        <v>9988330007</v>
+        <v>121</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="I22">
-        <v>572101</v>
+        <v>560010</v>
       </c>
       <c r="J22" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>133</v>
+      </c>
+      <c r="M22" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" t="s">
+        <v>112</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>1008</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23">
+        <v>600001</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="14:16">
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="26" spans="1:18">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>150</v>
+      </c>
+      <c r="N28" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="R28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F29" t="s">
         <v>158</v>
       </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="2">
-        <v>9988330008</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" t="s">
         <v>34</v>
       </c>
-      <c r="H23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23">
-        <v>560010</v>
-      </c>
-      <c r="J23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" t="s">
-        <v>160</v>
-      </c>
-      <c r="O23" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24">
-        <v>1009</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="2">
-        <v>9988330009</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24">
-        <v>600001</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="M29" t="s">
         <v>163</v>
       </c>
-      <c r="K24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="N29" t="s">
         <v>164</v>
       </c>
-      <c r="O24" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3"/>
+      <c r="O29" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="R29" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="3"/>
-      <c r="C30"/>
-      <c r="I30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="3"/>
-      <c r="C31"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="3"/>
-      <c r="C32"/>
-      <c r="I32" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3"/>
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="student1005@gmail.com"/>
-    <hyperlink ref="B21" r:id="rId1" display="student1006@gmail.com"/>
-    <hyperlink ref="B22" r:id="rId1" display="student1007@gmail.com"/>
-    <hyperlink ref="B23" r:id="rId1" display="student1008@gmail.com"/>
-    <hyperlink ref="B19" r:id="rId1" display="student1004@gmail.com"/>
-    <hyperlink ref="B24" r:id="rId1" display="student1009@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId1" display="student1005@gmail.com"/>
+    <hyperlink ref="B20" r:id="rId1" display="student1006@gmail.com"/>
+    <hyperlink ref="B21" r:id="rId1" display="student1007@gmail.com"/>
+    <hyperlink ref="B22" r:id="rId1" display="student1008@gmail.com"/>
+    <hyperlink ref="B23" r:id="rId1" display="student1009@gmail.com"/>
+    <hyperlink ref="A28" r:id="rId2" display="mithun@codewave.com"/>
+    <hyperlink ref="E28" r:id="rId3" display="Gemcean@g.com" tooltip="mailto:Gemcean@g.com"/>
+    <hyperlink ref="G28" r:id="rId4" display="GemOce&amp;12" tooltip="mailto:Blueoc@12"/>
+    <hyperlink ref="K28" r:id="rId5" display="www.gemocean.com" tooltip="http://www.gemocean.com"/>
+    <hyperlink ref="A29" r:id="rId2" display="mithun@codewave.com"/>
+    <hyperlink ref="E29" r:id="rId6" display="Coral@g.com" tooltip="mailto:Coral@g.com"/>
+    <hyperlink ref="G29" r:id="rId4" display="Coral&amp;1234" tooltip="mailto:Blueoc@12"/>
+    <hyperlink ref="K29" r:id="rId7" display="www.coral.com" tooltip="http://www.coral.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="864" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin_myschool" sheetId="1" r:id="rId1"/>
     <sheet name="ValidLogin_edison" sheetId="6" r:id="rId2"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId3"/>
-    <sheet name="AddStudent" sheetId="3" r:id="rId4"/>
-    <sheet name="AddInstitution" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="AddInstitution" sheetId="4" r:id="rId4"/>
+    <sheet name="AddStudent" sheetId="3" r:id="rId5"/>
+    <sheet name="VerifyCreateStudentSuccessMessa" sheetId="8" r:id="rId6"/>
+    <sheet name="AddStudentEmailAlreadyExist" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
   <si>
     <t>Username</t>
   </si>
@@ -51,15 +53,150 @@
     <t>Executive@12</t>
   </si>
   <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>NameOfInstitute</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TenantId</t>
+  </si>
+  <si>
+    <t>AffiliationNo</t>
+  </si>
+  <si>
+    <t>TagLine</t>
+  </si>
+  <si>
+    <t>ThemeCode</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Soumitra Institute</t>
+  </si>
+  <si>
+    <t>2330011110</t>
+  </si>
+  <si>
+    <t>SoumitraInstitute@g.com</t>
+  </si>
+  <si>
+    <t>soumitra</t>
+  </si>
+  <si>
+    <t>Soumitra&amp;12</t>
+  </si>
+  <si>
+    <t>335552</t>
+  </si>
+  <si>
+    <t>LOtus</t>
+  </si>
+  <si>
+    <t>Theme 1 (background emerald)</t>
+  </si>
+  <si>
+    <t>www.sumitra.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Adoni</t>
+  </si>
+  <si>
+    <t>Temple Road</t>
+  </si>
+  <si>
+    <t>Market road</t>
+  </si>
+  <si>
+    <t>518301</t>
+  </si>
+  <si>
+    <t>ICSE</t>
+  </si>
+  <si>
+    <t>Mangalore Institute</t>
+  </si>
+  <si>
+    <t>2130000322</t>
+  </si>
+  <si>
+    <t>Mangalore@g.com</t>
+  </si>
+  <si>
+    <t>redmine</t>
+  </si>
+  <si>
+    <t>Manglor&amp;4</t>
+  </si>
+  <si>
+    <t>29311</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Theme 3 (background cyan)</t>
+  </si>
+  <si>
+    <t>www.finoma.org</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Mangaluru</t>
+  </si>
+  <si>
+    <t>Veedhi</t>
+  </si>
+  <si>
+    <t>689924</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
     <t>Pwd</t>
   </si>
   <si>
     <t>Roll Number</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -69,15 +206,6 @@
     <t>Mobile No</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>Pin Code</t>
   </si>
   <si>
@@ -108,283 +236,199 @@
     <t>Mother_Tounge</t>
   </si>
   <si>
-    <t>10025</t>
-  </si>
-  <si>
-    <t>student10025@gmail.com</t>
-  </si>
-  <si>
-    <t>Fam</t>
+    <t>10026</t>
+  </si>
+  <si>
+    <t>student10026@gmail.com</t>
+  </si>
+  <si>
+    <t>Sushma</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>9999999926</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>560010</t>
+  </si>
+  <si>
+    <t>Rajajinagar</t>
+  </si>
+  <si>
+    <t>same as prefered address</t>
+  </si>
+  <si>
+    <t>14 Aug, 2017</t>
+  </si>
+  <si>
+    <t>13 Nov, 2023</t>
+  </si>
+  <si>
+    <t>June/2023-April/2024</t>
+  </si>
+  <si>
+    <t>GradeTHREE</t>
+  </si>
+  <si>
+    <t>Section A</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>10027</t>
+  </si>
+  <si>
+    <t>student10027@gmail.com</t>
+  </si>
+  <si>
+    <t>Rashmi</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>9999999925</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>560010</t>
-  </si>
-  <si>
-    <t>Rajajinagar</t>
-  </si>
-  <si>
-    <t>same as prefered address</t>
+    <t>9999999927</t>
+  </si>
+  <si>
+    <t>10028</t>
+  </si>
+  <si>
+    <t>student10028@gmail.com</t>
+  </si>
+  <si>
+    <t>Manju</t>
+  </si>
+  <si>
+    <t>9999999928</t>
+  </si>
+  <si>
+    <t>23 Sep, 2017</t>
+  </si>
+  <si>
+    <t>10029</t>
+  </si>
+  <si>
+    <t>student10029@gmail.com</t>
+  </si>
+  <si>
+    <t>9999999929</t>
+  </si>
+  <si>
+    <t>09 Feb, 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pw, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameOfInstitute, </t>
+  </si>
+  <si>
+    <t>Name Of Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TenantId, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AffiliationNo, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TagLine, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThemeCode, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street2, </t>
+  </si>
+  <si>
+    <t>student1005@gmail.com</t>
+  </si>
+  <si>
+    <t>Suren</t>
+  </si>
+  <si>
+    <t>9988330005</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Anna Nagar</t>
+  </si>
+  <si>
+    <t>30 Jul, 2016</t>
+  </si>
+  <si>
+    <t>20 Nov, 2023</t>
+  </si>
+  <si>
+    <t>October/2023-October/2024</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>student1006@gmail.com</t>
+  </si>
+  <si>
+    <t>Mulla</t>
+  </si>
+  <si>
+    <t>9988330006</t>
   </si>
   <si>
     <t>14 Mar, 2017</t>
   </si>
   <si>
-    <t>13 Nov, 2023</t>
-  </si>
-  <si>
-    <t>June/2023-April/2024</t>
-  </si>
-  <si>
-    <t>GradeTHREE</t>
-  </si>
-  <si>
-    <t>Section A</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>Kannada</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>NameOfInstitute</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>TenantId</t>
-  </si>
-  <si>
-    <t>AffiliationNo</t>
-  </si>
-  <si>
-    <t>TagLine</t>
-  </si>
-  <si>
-    <t>ThemeCode</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Street1</t>
-  </si>
-  <si>
-    <t>Street2</t>
-  </si>
-  <si>
-    <t>Pincode</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Soumitra Institute</t>
-  </si>
-  <si>
-    <t>2330011110</t>
-  </si>
-  <si>
-    <t>SoumitraInstitute@g.com</t>
-  </si>
-  <si>
-    <t>soumitra</t>
-  </si>
-  <si>
-    <t>Soumitra&amp;12</t>
-  </si>
-  <si>
-    <t>335552</t>
-  </si>
-  <si>
-    <t>LOtus</t>
-  </si>
-  <si>
-    <t>Theme 1 (background emerald)</t>
-  </si>
-  <si>
-    <t>www.sumitra.com</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Adoni</t>
-  </si>
-  <si>
-    <t>Temple Road</t>
-  </si>
-  <si>
-    <t>Market road</t>
-  </si>
-  <si>
-    <t>518301</t>
-  </si>
-  <si>
-    <t>ICSE</t>
-  </si>
-  <si>
-    <t>Mangalore Institute</t>
-  </si>
-  <si>
-    <t>2130000322</t>
-  </si>
-  <si>
-    <t>Mangalore@g.com</t>
-  </si>
-  <si>
-    <t>redmine</t>
-  </si>
-  <si>
-    <t>Manglor&amp;4</t>
-  </si>
-  <si>
-    <t>29311</t>
-  </si>
-  <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
-    <t>Theme 3 (background cyan)</t>
-  </si>
-  <si>
-    <t>www.finoma.org</t>
-  </si>
-  <si>
-    <t>Mangaluru</t>
-  </si>
-  <si>
-    <t>Veedhi</t>
-  </si>
-  <si>
-    <t>689924</t>
-  </si>
-  <si>
-    <t>CBSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pw, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NameOfInstitute, </t>
-  </si>
-  <si>
-    <t>Name Of Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TenantId, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AffiliationNo, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TagLine, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThemeCode, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">State, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">City, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street2, </t>
-  </si>
-  <si>
-    <t>student1005@gmail.com</t>
-  </si>
-  <si>
-    <t>Suren</t>
-  </si>
-  <si>
-    <t>9988330005</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Anna Nagar</t>
-  </si>
-  <si>
-    <t>30 Jul, 2016</t>
-  </si>
-  <si>
-    <t>20 Nov, 2023</t>
-  </si>
-  <si>
-    <t>October/2023-October/2024</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>student1006@gmail.com</t>
-  </si>
-  <si>
-    <t>Mulla</t>
-  </si>
-  <si>
-    <t>9988330006</t>
-  </si>
-  <si>
     <t>student1007@gmail.com</t>
   </si>
   <si>
     <t>Kanti</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
   <si>
     <t>9988330007</t>
@@ -1149,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1169,10 +1213,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,7 +1538,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1513,7 +1556,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1632,13 +1675,224 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="11.7272727272727"/>
+    <col min="5" max="5" width="16.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="15.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="17.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="12.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="21.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
+    <col min="11" max="11" width="16.5454545454545" customWidth="1"/>
+    <col min="13" max="13" width="15.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="10.5454545454545" customWidth="1"/>
+    <col min="15" max="15" width="11.3636363636364" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="8.72727272727273" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="mithun@codewave.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="Manglor&amp;4"/>
+    <hyperlink ref="E3" r:id="rId3" display="Mangalore@g.com" tooltip="mailto:Mangalore@g.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="mithun@codewave.com"/>
+    <hyperlink ref="E2" r:id="rId4" display="SoumitraInstitute@g.com" tooltip="mailto:SoumitraInstitute@g.com"/>
+    <hyperlink ref="G2" r:id="rId5" display="Soumitra&amp;12" tooltip="mailto:Blueoc@12"/>
+    <hyperlink ref="K2" r:id="rId6" display="www.sumitra.com" tooltip="http://www.sumitra.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
@@ -1665,128 +1919,572 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>46</v>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="student10025@gmail.com" tooltip="mailto:student10025@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="student10026@gmail.com" tooltip="mailto:student10026@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="rajemailex@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId3" display="Raj@12345"/>
+    <hyperlink ref="D3" r:id="rId4" display="student10027@gmail.com" tooltip="mailto:student10027@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="rajemailex@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3" display="Raj@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="11.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="7.45454545454545" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="10.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
+    <col min="7" max="7" width="11.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="8.27272727272727" customWidth="1"/>
+    <col min="9" max="9" width="9.90909090909091" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="8.90909090909091" customWidth="1"/>
+    <col min="12" max="12" width="17.6363636363636" customWidth="1"/>
+    <col min="13" max="13" width="24.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="12.9090909090909" customWidth="1"/>
+    <col min="15" max="15" width="15.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="20.8181818181818" customWidth="1"/>
+    <col min="17" max="17" width="13.2727272727273" customWidth="1"/>
+    <col min="18" max="18" width="9.18181818181818" customWidth="1"/>
+    <col min="19" max="19" width="12.8181818181818" customWidth="1"/>
+    <col min="20" max="20" width="15.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="29" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="student10028@gmail.com" tooltip="mailto:student10028@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="rajemailex@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId3" display="Raj@12345"/>
+    <hyperlink ref="D3" r:id="rId4" display="student10029@gmail.com" tooltip="mailto:student10029@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="rajemailex@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3" display="Raj@12345"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="29" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="student10026@gmail.com" tooltip="mailto:student10026@gmail.com"/>
     <hyperlink ref="A2" r:id="rId2" display="rajemailex@gmail.com"/>
     <hyperlink ref="B2" r:id="rId3" display="Raj@12345"/>
   </hyperlinks>
@@ -1795,218 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="11.7272727272727"/>
-    <col min="5" max="5" width="16.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="15.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="17.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="12.2727272727273" customWidth="1"/>
-    <col min="9" max="9" width="21.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="16.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="15.5454545454545" customWidth="1"/>
-    <col min="14" max="14" width="10.5454545454545" customWidth="1"/>
-    <col min="15" max="15" width="11.3636363636364" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="8.72727272727273" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="mithun@codewave.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="Manglor&amp;4"/>
-    <hyperlink ref="E3" r:id="rId3" display="Mangalore@g.com" tooltip="mailto:Mangalore@g.com"/>
-    <hyperlink ref="A2" r:id="rId1" display="mithun@codewave.com"/>
-    <hyperlink ref="E2" r:id="rId4" display="SoumitraInstitute@g.com" tooltip="mailto:SoumitraInstitute@g.com"/>
-    <hyperlink ref="G2" r:id="rId5" display="Soumitra&amp;12" tooltip="mailto:Blueoc@12"/>
-    <hyperlink ref="K2" r:id="rId6" display="www.sumitra.com" tooltip="http://www.sumitra.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U43"/>
@@ -2030,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2038,7 +2525,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2046,39 +2533,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2086,74 +2573,74 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2180,58 +2667,58 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2239,55 +2726,55 @@
         <v>1005</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I19">
         <v>600001</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Q19" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="R19" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2295,55 +2782,55 @@
         <v>1006</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I20">
         <v>560010</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Q20" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2351,55 +2838,55 @@
         <v>1007</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="I21">
         <v>572101</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" t="s">
         <v>126</v>
       </c>
-      <c r="N21" t="s">
-        <v>112</v>
-      </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Q21" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="R21" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2407,55 +2894,55 @@
         <v>1008</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I22">
         <v>560010</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M22" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O22" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Q22" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2463,66 +2950,66 @@
         <v>1009</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
-      </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I23">
         <v>600001</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M23" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="N23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O23" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Q23" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="R23" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="14:16">
       <c r="N24" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:21">
@@ -2555,55 +3042,55 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2614,52 +3101,52 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="N28" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="R28" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2670,52 +3157,52 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>160</v>
+        <v>173</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="N29" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>154</v>
+        <v>167</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="R29" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:9">

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="864" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="864" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin_myschool" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="181">
   <si>
     <t>Username</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>three.9393688889</t>
+  </si>
+  <si>
+    <t>Taut@2023</t>
   </si>
   <si>
     <t>codewave</t>
@@ -1581,8 +1587,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1608,8 +1614,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9"/>
@@ -1617,7 +1627,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mithun@codewave.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="mithun@codewave.com" tooltip="mailto:mithun@codewave.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1649,18 +1659,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1705,55 +1715,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1764,52 +1774,52 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1820,52 +1830,52 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1898,7 @@
   <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1919,61 +1929,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1984,58 +1994,58 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2046,58 +2056,58 @@
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="T3" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2152,61 +2162,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2217,58 +2227,58 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2279,58 +2289,58 @@
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2363,61 +2373,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2428,58 +2438,58 @@
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2499,7 +2509,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2517,7 +2527,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2525,7 +2535,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2533,39 +2543,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2573,74 +2583,74 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2667,58 +2677,58 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2726,55 +2736,55 @@
         <v>1005</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I19">
         <v>600001</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2782,55 +2792,55 @@
         <v>1006</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I20">
         <v>560010</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2838,55 +2848,55 @@
         <v>1007</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I21">
         <v>572101</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2894,55 +2904,55 @@
         <v>1008</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I22">
         <v>560010</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2950,66 +2960,66 @@
         <v>1009</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I23">
         <v>600001</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="14:16">
       <c r="N24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:21">
@@ -3042,55 +3052,55 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3101,52 +3111,52 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3157,52 +3167,52 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>179</v>
+      </c>
+      <c r="N29" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="Q29" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" t="s">
-        <v>175</v>
-      </c>
-      <c r="J29" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" t="s">
-        <v>177</v>
-      </c>
-      <c r="N29" t="s">
-        <v>178</v>
-      </c>
-      <c r="O29" t="s">
-        <v>166</v>
-      </c>
-      <c r="P29" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>168</v>
-      </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="2:9">
